--- a/仕様書/【CSDC】23_NPC一覧.xlsx
+++ b/仕様書/【CSDC】23_NPC一覧.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{414CEB6D-BC6B-47BB-AE5B-1139003F57BA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileSharing userName="Nakao" reservationPassword="C73B"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="トップ" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -981,7 +981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -989,21 +989,21 @@
       <selection pane="bottomLeft" activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
@@ -1047,7 +1047,7 @@
       <c r="AB4" s="24"/>
       <c r="AC4" s="24"/>
     </row>
-    <row r="5" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -1077,8 +1077,8 @@
       <c r="AB5" s="24"/>
       <c r="AC5" s="24"/>
     </row>
-    <row r="6" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="7" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="7" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="AN7" s="19"/>
       <c r="AO7" s="20"/>
     </row>
-    <row r="8" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="21" t="s">
         <v>14</v>
       </c>
@@ -1172,7 +1172,7 @@
       <c r="AN8" s="22"/>
       <c r="AO8" s="23"/>
     </row>
-    <row r="9" spans="1:41" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:41" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -1214,7 +1214,7 @@
       <c r="AN9" s="15"/>
       <c r="AO9" s="17"/>
     </row>
-    <row r="10" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -1256,7 +1256,7 @@
       <c r="AN10" s="15"/>
       <c r="AO10" s="17"/>
     </row>
-    <row r="11" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1298,7 +1298,7 @@
       <c r="AN11" s="10"/>
       <c r="AO11" s="12"/>
     </row>
-    <row r="12" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1340,7 +1340,7 @@
       <c r="AN12" s="10"/>
       <c r="AO12" s="12"/>
     </row>
-    <row r="13" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1382,7 +1382,7 @@
       <c r="AN13" s="10"/>
       <c r="AO13" s="12"/>
     </row>
-    <row r="14" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1424,7 +1424,7 @@
       <c r="AN14" s="10"/>
       <c r="AO14" s="12"/>
     </row>
-    <row r="15" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1466,7 +1466,7 @@
       <c r="AN15" s="10"/>
       <c r="AO15" s="12"/>
     </row>
-    <row r="16" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1508,7 +1508,7 @@
       <c r="AN16" s="10"/>
       <c r="AO16" s="12"/>
     </row>
-    <row r="17" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1550,7 +1550,7 @@
       <c r="AN17" s="10"/>
       <c r="AO17" s="12"/>
     </row>
-    <row r="18" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1592,7 +1592,7 @@
       <c r="AN18" s="10"/>
       <c r="AO18" s="12"/>
     </row>
-    <row r="19" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1634,7 +1634,7 @@
       <c r="AN19" s="10"/>
       <c r="AO19" s="12"/>
     </row>
-    <row r="20" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1676,7 +1676,7 @@
       <c r="AN20" s="10"/>
       <c r="AO20" s="12"/>
     </row>
-    <row r="21" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1718,7 +1718,7 @@
       <c r="AN21" s="10"/>
       <c r="AO21" s="12"/>
     </row>
-    <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1760,7 +1760,7 @@
       <c r="AN22" s="10"/>
       <c r="AO22" s="12"/>
     </row>
-    <row r="23" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1802,7 +1802,7 @@
       <c r="AN23" s="10"/>
       <c r="AO23" s="12"/>
     </row>
-    <row r="24" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1844,7 +1844,7 @@
       <c r="AN24" s="10"/>
       <c r="AO24" s="12"/>
     </row>
-    <row r="25" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1886,7 +1886,7 @@
       <c r="AN25" s="10"/>
       <c r="AO25" s="12"/>
     </row>
-    <row r="26" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1928,7 +1928,7 @@
       <c r="AN26" s="10"/>
       <c r="AO26" s="12"/>
     </row>
-    <row r="27" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1970,7 +1970,7 @@
       <c r="AN27" s="10"/>
       <c r="AO27" s="12"/>
     </row>
-    <row r="28" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -2012,7 +2012,7 @@
       <c r="AN28" s="10"/>
       <c r="AO28" s="12"/>
     </row>
-    <row r="29" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -2054,7 +2054,7 @@
       <c r="AN29" s="10"/>
       <c r="AO29" s="12"/>
     </row>
-    <row r="30" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -2096,7 +2096,7 @@
       <c r="AN30" s="10"/>
       <c r="AO30" s="12"/>
     </row>
-    <row r="31" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -2138,7 +2138,7 @@
       <c r="AN31" s="10"/>
       <c r="AO31" s="12"/>
     </row>
-    <row r="32" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2180,7 +2180,7 @@
       <c r="AN32" s="10"/>
       <c r="AO32" s="12"/>
     </row>
-    <row r="33" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2222,7 +2222,7 @@
       <c r="AN33" s="10"/>
       <c r="AO33" s="12"/>
     </row>
-    <row r="34" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -2264,7 +2264,7 @@
       <c r="AN34" s="10"/>
       <c r="AO34" s="12"/>
     </row>
-    <row r="35" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2306,7 +2306,7 @@
       <c r="AN35" s="10"/>
       <c r="AO35" s="12"/>
     </row>
-    <row r="36" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2348,7 +2348,7 @@
       <c r="AN36" s="10"/>
       <c r="AO36" s="12"/>
     </row>
-    <row r="37" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2524,12 +2524,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1" xr:uid="{8502BA42-3A61-4A49-8477-705A05F483FE}"/>
-    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2" xr:uid="{1388767F-A358-4FA6-867A-5A2B92EED372}"/>
-    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3" xr:uid="{C95BC720-0E1D-4FC5-8146-B14899D46EC4}"/>
-    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4" xr:uid="{97B69269-617A-49A2-87A3-3A8F627CCB0B}"/>
-    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5" xr:uid="{C19DB74C-E94D-48F1-A9C6-5BB9AF52BB27}"/>
-    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ" xr:uid="{50A7350F-FCE6-44CD-A21A-AA1E8EB111FB}"/>
+    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
+    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
+    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
+    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
+    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2537,7 +2537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2545,21 +2545,21 @@
       <selection pane="bottomLeft" activeCell="O18" sqref="O18:R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
@@ -2603,7 +2603,7 @@
       <c r="AB4" s="45"/>
       <c r="AC4" s="45"/>
     </row>
-    <row r="5" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -2633,8 +2633,8 @@
       <c r="AB5" s="45"/>
       <c r="AC5" s="45"/>
     </row>
-    <row r="6" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="7" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="7" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="38"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
@@ -2683,7 +2683,7 @@
       <c r="AU7" s="39"/>
       <c r="AV7" s="40"/>
     </row>
-    <row r="8" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="41"/>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
@@ -2732,7 +2732,7 @@
       <c r="AU8" s="42"/>
       <c r="AV8" s="43"/>
     </row>
-    <row r="9" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="44" t="s">
         <v>22</v>
       </c>
@@ -2791,7 +2791,7 @@
       <c r="AU9" s="15"/>
       <c r="AV9" s="17"/>
     </row>
-    <row r="10" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="29"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -2840,7 +2840,7 @@
       <c r="AU10" s="32"/>
       <c r="AV10" s="33"/>
     </row>
-    <row r="11" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="29"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -2889,7 +2889,7 @@
       <c r="AU11" s="32"/>
       <c r="AV11" s="33"/>
     </row>
-    <row r="12" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="29"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -2938,7 +2938,7 @@
       <c r="AU12" s="32"/>
       <c r="AV12" s="33"/>
     </row>
-    <row r="13" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="29"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -2987,7 +2987,7 @@
       <c r="AU13" s="32"/>
       <c r="AV13" s="33"/>
     </row>
-    <row r="14" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="29"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -3036,7 +3036,7 @@
       <c r="AU14" s="32"/>
       <c r="AV14" s="33"/>
     </row>
-    <row r="15" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="29"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -3085,7 +3085,7 @@
       <c r="AU15" s="32"/>
       <c r="AV15" s="33"/>
     </row>
-    <row r="16" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="29"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -3134,7 +3134,7 @@
       <c r="AU16" s="32"/>
       <c r="AV16" s="33"/>
     </row>
-    <row r="17" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="29"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -3183,7 +3183,7 @@
       <c r="AU17" s="32"/>
       <c r="AV17" s="33"/>
     </row>
-    <row r="18" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="29"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -3232,7 +3232,7 @@
       <c r="AU18" s="32"/>
       <c r="AV18" s="33"/>
     </row>
-    <row r="19" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="29"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -3281,7 +3281,7 @@
       <c r="AU19" s="32"/>
       <c r="AV19" s="33"/>
     </row>
-    <row r="20" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="29"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -3330,7 +3330,7 @@
       <c r="AU20" s="32"/>
       <c r="AV20" s="33"/>
     </row>
-    <row r="21" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="29"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -3379,7 +3379,7 @@
       <c r="AU21" s="32"/>
       <c r="AV21" s="33"/>
     </row>
-    <row r="22" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="29"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -3428,7 +3428,7 @@
       <c r="AU22" s="32"/>
       <c r="AV22" s="33"/>
     </row>
-    <row r="23" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="29"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -3477,7 +3477,7 @@
       <c r="AU23" s="32"/>
       <c r="AV23" s="33"/>
     </row>
-    <row r="24" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="29"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -3526,7 +3526,7 @@
       <c r="AU24" s="32"/>
       <c r="AV24" s="33"/>
     </row>
-    <row r="25" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="29"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -3575,7 +3575,7 @@
       <c r="AU25" s="32"/>
       <c r="AV25" s="33"/>
     </row>
-    <row r="26" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="29"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -3624,7 +3624,7 @@
       <c r="AU26" s="32"/>
       <c r="AV26" s="33"/>
     </row>
-    <row r="27" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="29"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -3673,7 +3673,7 @@
       <c r="AU27" s="32"/>
       <c r="AV27" s="33"/>
     </row>
-    <row r="28" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="29"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -3722,7 +3722,7 @@
       <c r="AU28" s="32"/>
       <c r="AV28" s="33"/>
     </row>
-    <row r="29" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="29"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
@@ -3771,7 +3771,7 @@
       <c r="AU29" s="32"/>
       <c r="AV29" s="33"/>
     </row>
-    <row r="30" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="29"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -3820,7 +3820,7 @@
       <c r="AU30" s="32"/>
       <c r="AV30" s="33"/>
     </row>
-    <row r="31" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="29"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -3869,7 +3869,7 @@
       <c r="AU31" s="32"/>
       <c r="AV31" s="33"/>
     </row>
-    <row r="32" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="36"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -3918,7 +3918,7 @@
       <c r="AU32" s="32"/>
       <c r="AV32" s="33"/>
     </row>
-    <row r="33" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="29"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
@@ -3967,7 +3967,7 @@
       <c r="AU33" s="32"/>
       <c r="AV33" s="33"/>
     </row>
-    <row r="34" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="36"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -4016,7 +4016,7 @@
       <c r="AU34" s="32"/>
       <c r="AV34" s="33"/>
     </row>
-    <row r="35" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="29"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -4065,7 +4065,7 @@
       <c r="AU35" s="32"/>
       <c r="AV35" s="33"/>
     </row>
-    <row r="36" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="29"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -4114,7 +4114,7 @@
       <c r="AU36" s="32"/>
       <c r="AV36" s="33"/>
     </row>
-    <row r="37" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="29"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
@@ -4163,7 +4163,7 @@
       <c r="AU37" s="32"/>
       <c r="AV37" s="33"/>
     </row>
-    <row r="38" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="29"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -4212,7 +4212,7 @@
       <c r="AU38" s="32"/>
       <c r="AV38" s="33"/>
     </row>
-    <row r="39" spans="2:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="30"/>
       <c r="C39" s="31"/>
       <c r="D39" s="31"/>
@@ -4355,12 +4355,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1" xr:uid="{8DCB77BB-434D-4C51-B13B-1F5B9EAEA1FD}"/>
-    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2" xr:uid="{E12DE0D8-2322-4FF6-8375-B6D19D08D27B}"/>
-    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3" xr:uid="{A865FAFD-55EB-4C90-907B-82542FBDCB87}"/>
-    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4" xr:uid="{3667B876-2AC5-4D84-B048-4FA4D0E10712}"/>
-    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5" xr:uid="{A228179B-CFD4-47F5-BAD5-0D81152B9E70}"/>
-    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ" xr:uid="{FF9F4F95-7813-4533-B322-BFC3894AC550}"/>
+    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
+    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
+    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
+    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
+    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4368,7 +4368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4376,21 +4376,21 @@
       <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="46" t="s">
         <v>1</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="AB4" s="48"/>
       <c r="AC4" s="48"/>
     </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
@@ -4477,12 +4477,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1" xr:uid="{E4EC6AD2-2817-433E-8D94-7C9999AE94E4}"/>
-    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2" xr:uid="{8D033FD0-8D12-460A-A9AC-A6738218B9CC}"/>
-    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3" xr:uid="{C2E32065-2592-48D1-9A26-647120297D50}"/>
-    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4" xr:uid="{5F0CED30-7849-44EE-A0E6-70EF71C6EBCC}"/>
-    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5" xr:uid="{B32CCB5F-B40A-4BAA-9622-45C1CE0A740B}"/>
-    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ" xr:uid="{1C321920-2688-44C3-81D7-9051BDA6ED60}"/>
+    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
+    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
+    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
+    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
+    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4490,7 +4490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4498,21 +4498,21 @@
       <selection pane="bottomLeft" activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="46" t="s">
         <v>1</v>
       </c>
@@ -4556,7 +4556,7 @@
       <c r="AB4" s="48"/>
       <c r="AC4" s="48"/>
     </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
@@ -4599,12 +4599,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1" xr:uid="{7736CEB5-CD01-4EF5-8171-D109BA924C3C}"/>
-    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2" xr:uid="{3841490C-E6AD-4813-A355-0EEBD2F02850}"/>
-    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3" xr:uid="{5B14AF64-042B-4EBA-9345-02BB0957E6AA}"/>
-    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4" xr:uid="{9D712066-27F1-408F-9029-3024CAAFF8D9}"/>
-    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5" xr:uid="{F085858B-B257-4F11-A2AE-822F15E439D9}"/>
-    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ" xr:uid="{7A04E4E6-B63D-499A-940C-1C415EA8AF23}"/>
+    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
+    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
+    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
+    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
+    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4612,7 +4612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4620,21 +4620,21 @@
       <selection pane="bottomLeft" activeCell="V4" sqref="V4:Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="46" t="s">
         <v>1</v>
       </c>
@@ -4678,7 +4678,7 @@
       <c r="AB4" s="48"/>
       <c r="AC4" s="48"/>
     </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
@@ -4721,12 +4721,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1" xr:uid="{FCA97F6C-D2B9-474F-9D66-4F8F4E5782B5}"/>
-    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2" xr:uid="{50E01AC6-C146-45A1-9EB8-484B2019FA67}"/>
-    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3" xr:uid="{41B24DAC-633F-4076-A2C8-19C25B06B3DF}"/>
-    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4" xr:uid="{12FBD9D9-FBCD-4FD3-BCB3-8652DED8F1F0}"/>
-    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5" xr:uid="{6EB5D335-8644-4AC4-9D04-C204833798BC}"/>
-    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ" xr:uid="{3A4FD47A-98CC-4CA5-8AE7-C8391E14B861}"/>
+    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
+    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
+    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
+    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
+    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4734,7 +4734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4742,21 +4742,21 @@
       <selection pane="bottomLeft" activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
@@ -4800,7 +4800,7 @@
       <c r="AB4" s="49"/>
       <c r="AC4" s="49"/>
     </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -4843,12 +4843,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1" xr:uid="{41996660-7088-44A7-8635-E576B8FB1749}"/>
-    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2" xr:uid="{D469651F-B41E-4076-9953-8D782205D32F}"/>
-    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3" xr:uid="{A3030557-C95D-4A49-A6C1-51C0D72B84D9}"/>
-    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4" xr:uid="{CD1EB01E-DEDE-4F68-BA56-AB31C44A3F6C}"/>
-    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5" xr:uid="{7B12842B-55B2-492B-A96D-47328009FF44}"/>
-    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ" xr:uid="{14FF2D82-6FB5-4124-8234-C49173D8AD63}"/>
+    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
+    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
+    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
+    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
+    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/仕様書/【CSDC】23_NPC一覧.xlsx
+++ b/仕様書/【CSDC】23_NPC一覧.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <fileSharing userName="Nakao" reservationPassword="C73B"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileSharing userName="Nakao" algorithmName="SHA-512" hashValue="tbAq6b7sAHfTnyCqkaAj8neGK093KpT/AnN6IK3hgjMZVqqUrpAgxFRrG+NdDPfJH8jWLs6rGKjpJVx19Ov4Zw==" saltValue="iZ0UCp5rt7DV5yslLiV9Iw==" spinCount="100000"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="トップ" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="仕様項目4" sheetId="10" r:id="rId5"/>
     <sheet name="仕様項目5" sheetId="12" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
   <si>
     <t>テンプレート_トップ</t>
     <phoneticPr fontId="1"/>
@@ -86,41 +86,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テンプレート_仕様項目1</t>
-    <rPh sb="7" eb="11">
-      <t>シヨウコウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テンプレート_仕様項目2</t>
-    <rPh sb="7" eb="11">
-      <t>シヨウコウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テンプレート_仕様項目3</t>
-    <rPh sb="7" eb="11">
-      <t>シヨウコウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テンプレート_仕様項目4</t>
-    <rPh sb="7" eb="11">
-      <t>シヨウコウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テンプレート_仕様項目5</t>
-    <rPh sb="7" eb="11">
-      <t>シヨウコウモク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -209,11 +174,239 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>NPC一覧</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NPCの種類</t>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いじめっ子</t>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いじめっ子（リーダー）</t>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いじめられっ子</t>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通の生徒</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いじめっ子</t>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いじめっ子（リーダー）</t>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通の生徒</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いじめられっ子</t>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いい感じ～</t>
+    <rPh sb="2" eb="3">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数名、型名、初期値</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カタメイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんやこいつ、いじめっ子に変化するやんけ！！</t>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪い奴らだ！飛ばすぜ！！</t>
+    <rPh sb="0" eb="1">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いじめっ子を引き連れてるぜ！ぶっ飛ばすぜ！！</t>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こいつは守る対象だから飛ばせないZE！！</t>
+    <rPh sb="4" eb="5">
+      <t>マモ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各NPC（いじめっ子とリーダー）が持っているステータス。これがなくなると更生完了！！全員更生させたらゲームクリアだ！</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いじめパワー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いじめパワーだよ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いじめパワーとは？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３０（要調整）</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６０（要調整）</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いじめパワー</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -320,7 +513,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -547,12 +740,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -641,26 +990,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -689,6 +1023,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -700,6 +1061,60 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -717,6 +1132,560 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>40339</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>197225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フローチャート: 処理 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="936810" y="3910854"/>
+          <a:ext cx="1954307" cy="320489"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>いじめられっ子を追いかける</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>58268</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>215151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フローチャート: 処理 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4863352" y="3933264"/>
+          <a:ext cx="1246092" cy="316005"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>教室を適当に歩く</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>121023</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="カギ線コネクタ 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="1"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1913964" y="3305734"/>
+          <a:ext cx="416860" cy="605119"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="60325">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>107574</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="カギ線コネクタ 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="3"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5020235" y="3305735"/>
+          <a:ext cx="466163" cy="627529"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="60325">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="フローチャート: 判断 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2330824" y="3003176"/>
+          <a:ext cx="2689411" cy="605118"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>いじめられっ子探す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>73958</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>141194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>199462</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>8963</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="フローチャート: 処理 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6573370" y="3054723"/>
+          <a:ext cx="1246092" cy="316005"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>消える</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>40340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>24651</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>141194</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="カギ線コネクタ 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="3"/>
+          <a:endCxn id="67" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6741459" y="2505634"/>
+          <a:ext cx="454957" cy="549089"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="60325">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>186016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>118781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="フローチャート: 判断 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4052048" y="2203075"/>
+          <a:ext cx="2689411" cy="605118"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>更生力が残っている</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>40340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="カギ線コネクタ 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="1"/>
+          <a:endCxn id="26" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3675530" y="2505634"/>
+          <a:ext cx="376518" cy="497542"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="60325">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -970,7 +1939,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr kumimoji="1" sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -984,26 +1979,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH5" sqref="AH5"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
@@ -1047,7 +2042,7 @@
       <c r="AB4" s="24"/>
       <c r="AC4" s="24"/>
     </row>
-    <row r="5" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -1077,10 +2072,10 @@
       <c r="AB5" s="24"/>
       <c r="AC5" s="24"/>
     </row>
-    <row r="6" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="7" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -1122,23 +2117,23 @@
       <c r="AN7" s="19"/>
       <c r="AO7" s="20"/>
     </row>
-    <row r="8" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
@@ -1146,7 +2141,7 @@
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -1172,7 +2167,7 @@
       <c r="AN8" s="22"/>
       <c r="AO8" s="23"/>
     </row>
-    <row r="9" spans="1:41" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:41" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -1214,7 +2209,7 @@
       <c r="AN9" s="15"/>
       <c r="AO9" s="17"/>
     </row>
-    <row r="10" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -1256,7 +2251,7 @@
       <c r="AN10" s="15"/>
       <c r="AO10" s="17"/>
     </row>
-    <row r="11" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1298,7 +2293,7 @@
       <c r="AN11" s="10"/>
       <c r="AO11" s="12"/>
     </row>
-    <row r="12" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1340,7 +2335,7 @@
       <c r="AN12" s="10"/>
       <c r="AO12" s="12"/>
     </row>
-    <row r="13" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1382,7 +2377,7 @@
       <c r="AN13" s="10"/>
       <c r="AO13" s="12"/>
     </row>
-    <row r="14" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1424,7 +2419,7 @@
       <c r="AN14" s="10"/>
       <c r="AO14" s="12"/>
     </row>
-    <row r="15" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1466,7 +2461,7 @@
       <c r="AN15" s="10"/>
       <c r="AO15" s="12"/>
     </row>
-    <row r="16" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1508,7 +2503,7 @@
       <c r="AN16" s="10"/>
       <c r="AO16" s="12"/>
     </row>
-    <row r="17" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1550,7 +2545,7 @@
       <c r="AN17" s="10"/>
       <c r="AO17" s="12"/>
     </row>
-    <row r="18" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1592,7 +2587,7 @@
       <c r="AN18" s="10"/>
       <c r="AO18" s="12"/>
     </row>
-    <row r="19" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1634,7 +2629,7 @@
       <c r="AN19" s="10"/>
       <c r="AO19" s="12"/>
     </row>
-    <row r="20" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1676,7 +2671,7 @@
       <c r="AN20" s="10"/>
       <c r="AO20" s="12"/>
     </row>
-    <row r="21" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1718,7 +2713,7 @@
       <c r="AN21" s="10"/>
       <c r="AO21" s="12"/>
     </row>
-    <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1760,7 +2755,7 @@
       <c r="AN22" s="10"/>
       <c r="AO22" s="12"/>
     </row>
-    <row r="23" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1802,7 +2797,7 @@
       <c r="AN23" s="10"/>
       <c r="AO23" s="12"/>
     </row>
-    <row r="24" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1844,7 +2839,7 @@
       <c r="AN24" s="10"/>
       <c r="AO24" s="12"/>
     </row>
-    <row r="25" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1886,7 +2881,7 @@
       <c r="AN25" s="10"/>
       <c r="AO25" s="12"/>
     </row>
-    <row r="26" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1928,7 +2923,7 @@
       <c r="AN26" s="10"/>
       <c r="AO26" s="12"/>
     </row>
-    <row r="27" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1970,7 +2965,7 @@
       <c r="AN27" s="10"/>
       <c r="AO27" s="12"/>
     </row>
-    <row r="28" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -2012,7 +3007,7 @@
       <c r="AN28" s="10"/>
       <c r="AO28" s="12"/>
     </row>
-    <row r="29" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -2054,7 +3049,7 @@
       <c r="AN29" s="10"/>
       <c r="AO29" s="12"/>
     </row>
-    <row r="30" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -2096,7 +3091,7 @@
       <c r="AN30" s="10"/>
       <c r="AO30" s="12"/>
     </row>
-    <row r="31" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -2138,7 +3133,7 @@
       <c r="AN31" s="10"/>
       <c r="AO31" s="12"/>
     </row>
-    <row r="32" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2180,7 +3175,7 @@
       <c r="AN32" s="10"/>
       <c r="AO32" s="12"/>
     </row>
-    <row r="33" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2222,7 +3217,7 @@
       <c r="AN33" s="10"/>
       <c r="AO33" s="12"/>
     </row>
-    <row r="34" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -2264,7 +3259,7 @@
       <c r="AN34" s="10"/>
       <c r="AO34" s="12"/>
     </row>
-    <row r="35" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2306,7 +3301,7 @@
       <c r="AN35" s="10"/>
       <c r="AO35" s="12"/>
     </row>
-    <row r="36" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2348,7 +3343,7 @@
       <c r="AN36" s="10"/>
       <c r="AO36" s="12"/>
     </row>
-    <row r="37" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2538,203 +3533,2895 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA39"/>
+  <dimension ref="A1:BA30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O18" sqref="O18:R19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O23" sqref="O23:AV30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="25" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
-      <c r="N4" s="45" t="s">
+      <c r="N4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45" t="s">
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45" t="s">
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45" t="s">
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-    </row>
-    <row r="5" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+    </row>
+    <row r="5" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-    </row>
-    <row r="6" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="7" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="39"/>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="39"/>
-      <c r="AT7" s="39"/>
-      <c r="AU7" s="39"/>
-      <c r="AV7" s="40"/>
-    </row>
-    <row r="8" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="42"/>
-      <c r="AL8" s="42"/>
-      <c r="AM8" s="42"/>
-      <c r="AN8" s="42"/>
-      <c r="AO8" s="42"/>
-      <c r="AP8" s="42"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="42"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="42"/>
-      <c r="AV8" s="43"/>
-    </row>
-    <row r="9" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="44" t="s">
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+    </row>
+    <row r="6" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
+      <c r="AP7" s="34"/>
+      <c r="AQ7" s="34"/>
+      <c r="AR7" s="34"/>
+      <c r="AS7" s="34"/>
+      <c r="AT7" s="34"/>
+      <c r="AU7" s="34"/>
+      <c r="AV7" s="35"/>
+    </row>
+    <row r="8" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="55"/>
+      <c r="AN8" s="55"/>
+      <c r="AO8" s="55"/>
+      <c r="AP8" s="55"/>
+      <c r="AQ8" s="55"/>
+      <c r="AR8" s="55"/>
+      <c r="AS8" s="55"/>
+      <c r="AT8" s="55"/>
+      <c r="AU8" s="55"/>
+      <c r="AV8" s="56"/>
+    </row>
+    <row r="9" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+    </row>
+    <row r="10" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+    </row>
+    <row r="11" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+    </row>
+    <row r="12" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10"/>
+    </row>
+    <row r="13" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+    </row>
+    <row r="14" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="10"/>
+    </row>
+    <row r="15" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="10"/>
+    </row>
+    <row r="16" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="27" t="s">
         <v>22</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+    </row>
+    <row r="17" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
+      <c r="AV17" s="10"/>
+    </row>
+    <row r="19" spans="2:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="34"/>
+      <c r="AH20" s="34"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="34"/>
+      <c r="AK20" s="34"/>
+      <c r="AL20" s="34"/>
+      <c r="AM20" s="34"/>
+      <c r="AN20" s="34"/>
+      <c r="AO20" s="34"/>
+      <c r="AP20" s="34"/>
+      <c r="AQ20" s="34"/>
+      <c r="AR20" s="34"/>
+      <c r="AS20" s="34"/>
+      <c r="AT20" s="34"/>
+      <c r="AU20" s="34"/>
+      <c r="AV20" s="35"/>
+    </row>
+    <row r="21" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="55"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="55"/>
+      <c r="AL21" s="55"/>
+      <c r="AM21" s="55"/>
+      <c r="AN21" s="55"/>
+      <c r="AO21" s="55"/>
+      <c r="AP21" s="55"/>
+      <c r="AQ21" s="55"/>
+      <c r="AR21" s="55"/>
+      <c r="AS21" s="55"/>
+      <c r="AT21" s="55"/>
+      <c r="AU21" s="55"/>
+      <c r="AV21" s="56"/>
+    </row>
+    <row r="22" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="58"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="58"/>
+      <c r="AH22" s="58"/>
+      <c r="AI22" s="58"/>
+      <c r="AJ22" s="58"/>
+      <c r="AK22" s="58"/>
+      <c r="AL22" s="58"/>
+      <c r="AM22" s="58"/>
+      <c r="AN22" s="58"/>
+      <c r="AO22" s="58"/>
+      <c r="AP22" s="58"/>
+      <c r="AQ22" s="58"/>
+      <c r="AR22" s="58"/>
+      <c r="AS22" s="58"/>
+      <c r="AT22" s="58"/>
+      <c r="AU22" s="58"/>
+      <c r="AV22" s="59"/>
+    </row>
+    <row r="23" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="64"/>
+      <c r="AE23" s="64"/>
+      <c r="AF23" s="64"/>
+      <c r="AG23" s="64"/>
+      <c r="AH23" s="64"/>
+      <c r="AI23" s="64"/>
+      <c r="AJ23" s="64"/>
+      <c r="AK23" s="64"/>
+      <c r="AL23" s="64"/>
+      <c r="AM23" s="64"/>
+      <c r="AN23" s="64"/>
+      <c r="AO23" s="64"/>
+      <c r="AP23" s="64"/>
+      <c r="AQ23" s="64"/>
+      <c r="AR23" s="64"/>
+      <c r="AS23" s="64"/>
+      <c r="AT23" s="64"/>
+      <c r="AU23" s="64"/>
+      <c r="AV23" s="65"/>
+    </row>
+    <row r="24" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="67"/>
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="67"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="67"/>
+      <c r="AG24" s="67"/>
+      <c r="AH24" s="67"/>
+      <c r="AI24" s="67"/>
+      <c r="AJ24" s="67"/>
+      <c r="AK24" s="67"/>
+      <c r="AL24" s="67"/>
+      <c r="AM24" s="67"/>
+      <c r="AN24" s="67"/>
+      <c r="AO24" s="67"/>
+      <c r="AP24" s="67"/>
+      <c r="AQ24" s="67"/>
+      <c r="AR24" s="67"/>
+      <c r="AS24" s="67"/>
+      <c r="AT24" s="67"/>
+      <c r="AU24" s="67"/>
+      <c r="AV24" s="68"/>
+    </row>
+    <row r="25" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="67"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="67"/>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="67"/>
+      <c r="AE25" s="67"/>
+      <c r="AF25" s="67"/>
+      <c r="AG25" s="67"/>
+      <c r="AH25" s="67"/>
+      <c r="AI25" s="67"/>
+      <c r="AJ25" s="67"/>
+      <c r="AK25" s="67"/>
+      <c r="AL25" s="67"/>
+      <c r="AM25" s="67"/>
+      <c r="AN25" s="67"/>
+      <c r="AO25" s="67"/>
+      <c r="AP25" s="67"/>
+      <c r="AQ25" s="67"/>
+      <c r="AR25" s="67"/>
+      <c r="AS25" s="67"/>
+      <c r="AT25" s="67"/>
+      <c r="AU25" s="67"/>
+      <c r="AV25" s="68"/>
+    </row>
+    <row r="26" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="67"/>
+      <c r="AC26" s="67"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="67"/>
+      <c r="AF26" s="67"/>
+      <c r="AG26" s="67"/>
+      <c r="AH26" s="67"/>
+      <c r="AI26" s="67"/>
+      <c r="AJ26" s="67"/>
+      <c r="AK26" s="67"/>
+      <c r="AL26" s="67"/>
+      <c r="AM26" s="67"/>
+      <c r="AN26" s="67"/>
+      <c r="AO26" s="67"/>
+      <c r="AP26" s="67"/>
+      <c r="AQ26" s="67"/>
+      <c r="AR26" s="67"/>
+      <c r="AS26" s="67"/>
+      <c r="AT26" s="67"/>
+      <c r="AU26" s="67"/>
+      <c r="AV26" s="68"/>
+    </row>
+    <row r="27" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="67"/>
+      <c r="Z27" s="67"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="67"/>
+      <c r="AC27" s="67"/>
+      <c r="AD27" s="67"/>
+      <c r="AE27" s="67"/>
+      <c r="AF27" s="67"/>
+      <c r="AG27" s="67"/>
+      <c r="AH27" s="67"/>
+      <c r="AI27" s="67"/>
+      <c r="AJ27" s="67"/>
+      <c r="AK27" s="67"/>
+      <c r="AL27" s="67"/>
+      <c r="AM27" s="67"/>
+      <c r="AN27" s="67"/>
+      <c r="AO27" s="67"/>
+      <c r="AP27" s="67"/>
+      <c r="AQ27" s="67"/>
+      <c r="AR27" s="67"/>
+      <c r="AS27" s="67"/>
+      <c r="AT27" s="67"/>
+      <c r="AU27" s="67"/>
+      <c r="AV27" s="68"/>
+    </row>
+    <row r="28" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="67"/>
+      <c r="W28" s="67"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="67"/>
+      <c r="Z28" s="67"/>
+      <c r="AA28" s="67"/>
+      <c r="AB28" s="67"/>
+      <c r="AC28" s="67"/>
+      <c r="AD28" s="67"/>
+      <c r="AE28" s="67"/>
+      <c r="AF28" s="67"/>
+      <c r="AG28" s="67"/>
+      <c r="AH28" s="67"/>
+      <c r="AI28" s="67"/>
+      <c r="AJ28" s="67"/>
+      <c r="AK28" s="67"/>
+      <c r="AL28" s="67"/>
+      <c r="AM28" s="67"/>
+      <c r="AN28" s="67"/>
+      <c r="AO28" s="67"/>
+      <c r="AP28" s="67"/>
+      <c r="AQ28" s="67"/>
+      <c r="AR28" s="67"/>
+      <c r="AS28" s="67"/>
+      <c r="AT28" s="67"/>
+      <c r="AU28" s="67"/>
+      <c r="AV28" s="68"/>
+    </row>
+    <row r="29" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="67"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="67"/>
+      <c r="Z29" s="67"/>
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="67"/>
+      <c r="AC29" s="67"/>
+      <c r="AD29" s="67"/>
+      <c r="AE29" s="67"/>
+      <c r="AF29" s="67"/>
+      <c r="AG29" s="67"/>
+      <c r="AH29" s="67"/>
+      <c r="AI29" s="67"/>
+      <c r="AJ29" s="67"/>
+      <c r="AK29" s="67"/>
+      <c r="AL29" s="67"/>
+      <c r="AM29" s="67"/>
+      <c r="AN29" s="67"/>
+      <c r="AO29" s="67"/>
+      <c r="AP29" s="67"/>
+      <c r="AQ29" s="67"/>
+      <c r="AR29" s="67"/>
+      <c r="AS29" s="67"/>
+      <c r="AT29" s="67"/>
+      <c r="AU29" s="67"/>
+      <c r="AV29" s="68"/>
+    </row>
+    <row r="30" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="70"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="70"/>
+      <c r="Z30" s="70"/>
+      <c r="AA30" s="70"/>
+      <c r="AB30" s="70"/>
+      <c r="AC30" s="70"/>
+      <c r="AD30" s="70"/>
+      <c r="AE30" s="70"/>
+      <c r="AF30" s="70"/>
+      <c r="AG30" s="70"/>
+      <c r="AH30" s="70"/>
+      <c r="AI30" s="70"/>
+      <c r="AJ30" s="70"/>
+      <c r="AK30" s="70"/>
+      <c r="AL30" s="70"/>
+      <c r="AM30" s="70"/>
+      <c r="AN30" s="70"/>
+      <c r="AO30" s="70"/>
+      <c r="AP30" s="70"/>
+      <c r="AQ30" s="70"/>
+      <c r="AR30" s="70"/>
+      <c r="AS30" s="70"/>
+      <c r="AT30" s="70"/>
+      <c r="AU30" s="70"/>
+      <c r="AV30" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="I10:R11"/>
+    <mergeCell ref="I12:R13"/>
+    <mergeCell ref="I16:R17"/>
+    <mergeCell ref="I14:R15"/>
+    <mergeCell ref="O23:AV30"/>
+    <mergeCell ref="B23:N30"/>
+    <mergeCell ref="B20:AV21"/>
+    <mergeCell ref="O22:AV22"/>
+    <mergeCell ref="B22:N22"/>
+    <mergeCell ref="A1:XFD3"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="J4:M5"/>
+    <mergeCell ref="N4:Q5"/>
+    <mergeCell ref="R4:U5"/>
+    <mergeCell ref="V4:Y5"/>
+    <mergeCell ref="Z4:AC5"/>
+    <mergeCell ref="B7:AV8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="W10:AA11"/>
+    <mergeCell ref="W12:AA13"/>
+    <mergeCell ref="W14:AA15"/>
+    <mergeCell ref="W16:AA17"/>
+    <mergeCell ref="AB9:AV9"/>
+    <mergeCell ref="AB10:AV11"/>
+    <mergeCell ref="AB12:AV13"/>
+    <mergeCell ref="AB14:AV15"/>
+    <mergeCell ref="B12:H13"/>
+    <mergeCell ref="S12:V13"/>
+    <mergeCell ref="B10:H11"/>
+    <mergeCell ref="S10:V11"/>
+    <mergeCell ref="B16:H17"/>
+    <mergeCell ref="S16:V17"/>
+    <mergeCell ref="AB16:AV17"/>
+    <mergeCell ref="B14:H15"/>
+    <mergeCell ref="S14:V15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
+    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
+    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
+    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
+    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BA32"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4:M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="52" width="3" style="1"/>
+    <col min="53" max="53" width="3" style="2"/>
+    <col min="54" max="16384" width="3" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+    </row>
+    <row r="5" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+    </row>
+    <row r="6" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
+      <c r="AP7" s="34"/>
+      <c r="AQ7" s="34"/>
+      <c r="AR7" s="34"/>
+      <c r="AS7" s="34"/>
+      <c r="AT7" s="34"/>
+      <c r="AU7" s="34"/>
+      <c r="AV7" s="35"/>
+    </row>
+    <row r="8" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="55"/>
+      <c r="AN8" s="55"/>
+      <c r="AO8" s="55"/>
+      <c r="AP8" s="55"/>
+      <c r="AQ8" s="55"/>
+      <c r="AR8" s="55"/>
+      <c r="AS8" s="55"/>
+      <c r="AT8" s="55"/>
+      <c r="AU8" s="55"/>
+      <c r="AV8" s="56"/>
+    </row>
+    <row r="9" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="61"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="61"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="61"/>
+      <c r="AK9" s="61"/>
+      <c r="AL9" s="61"/>
+      <c r="AM9" s="61"/>
+      <c r="AN9" s="61"/>
+      <c r="AO9" s="61"/>
+      <c r="AP9" s="61"/>
+      <c r="AQ9" s="61"/>
+      <c r="AR9" s="61"/>
+      <c r="AS9" s="61"/>
+      <c r="AT9" s="61"/>
+      <c r="AU9" s="61"/>
+      <c r="AV9" s="62"/>
+    </row>
+    <row r="10" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="27"/>
+      <c r="AQ10" s="27"/>
+      <c r="AR10" s="27"/>
+      <c r="AS10" s="27"/>
+      <c r="AT10" s="27"/>
+      <c r="AU10" s="27"/>
+      <c r="AV10" s="27"/>
+    </row>
+    <row r="11" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="27"/>
+      <c r="AR11" s="27"/>
+      <c r="AS11" s="27"/>
+      <c r="AT11" s="27"/>
+      <c r="AU11" s="27"/>
+      <c r="AV11" s="27"/>
+    </row>
+    <row r="12" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="27"/>
+      <c r="AP12" s="27"/>
+      <c r="AQ12" s="27"/>
+      <c r="AR12" s="27"/>
+      <c r="AS12" s="27"/>
+      <c r="AT12" s="27"/>
+      <c r="AU12" s="27"/>
+      <c r="AV12" s="27"/>
+    </row>
+    <row r="13" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="27"/>
+      <c r="AP13" s="27"/>
+      <c r="AQ13" s="27"/>
+      <c r="AR13" s="27"/>
+      <c r="AS13" s="27"/>
+      <c r="AT13" s="27"/>
+      <c r="AU13" s="27"/>
+      <c r="AV13" s="27"/>
+    </row>
+    <row r="14" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="27"/>
+      <c r="AP14" s="27"/>
+      <c r="AQ14" s="27"/>
+      <c r="AR14" s="27"/>
+      <c r="AS14" s="27"/>
+      <c r="AT14" s="27"/>
+      <c r="AU14" s="27"/>
+      <c r="AV14" s="27"/>
+    </row>
+    <row r="15" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27"/>
+      <c r="AO15" s="27"/>
+      <c r="AP15" s="27"/>
+      <c r="AQ15" s="27"/>
+      <c r="AR15" s="27"/>
+      <c r="AS15" s="27"/>
+      <c r="AT15" s="27"/>
+      <c r="AU15" s="27"/>
+      <c r="AV15" s="27"/>
+    </row>
+    <row r="16" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="27"/>
+      <c r="AP16" s="27"/>
+      <c r="AQ16" s="27"/>
+      <c r="AR16" s="27"/>
+      <c r="AS16" s="27"/>
+      <c r="AT16" s="27"/>
+      <c r="AU16" s="27"/>
+      <c r="AV16" s="27"/>
+    </row>
+    <row r="17" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="27"/>
+      <c r="AR17" s="27"/>
+      <c r="AS17" s="27"/>
+      <c r="AT17" s="27"/>
+      <c r="AU17" s="27"/>
+      <c r="AV17" s="27"/>
+    </row>
+    <row r="18" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="27"/>
+      <c r="AP18" s="27"/>
+      <c r="AQ18" s="27"/>
+      <c r="AR18" s="27"/>
+      <c r="AS18" s="27"/>
+      <c r="AT18" s="27"/>
+      <c r="AU18" s="27"/>
+      <c r="AV18" s="27"/>
+    </row>
+    <row r="19" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27"/>
+      <c r="AP19" s="27"/>
+      <c r="AQ19" s="27"/>
+      <c r="AR19" s="27"/>
+      <c r="AS19" s="27"/>
+      <c r="AT19" s="27"/>
+      <c r="AU19" s="27"/>
+      <c r="AV19" s="27"/>
+    </row>
+    <row r="20" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="27"/>
+      <c r="AR20" s="27"/>
+      <c r="AS20" s="27"/>
+      <c r="AT20" s="27"/>
+      <c r="AU20" s="27"/>
+      <c r="AV20" s="27"/>
+    </row>
+    <row r="21" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
+      <c r="AP21" s="27"/>
+      <c r="AQ21" s="27"/>
+      <c r="AR21" s="27"/>
+      <c r="AS21" s="27"/>
+      <c r="AT21" s="27"/>
+      <c r="AU21" s="27"/>
+      <c r="AV21" s="27"/>
+    </row>
+    <row r="22" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27"/>
+      <c r="AP22" s="27"/>
+      <c r="AQ22" s="27"/>
+      <c r="AR22" s="27"/>
+      <c r="AS22" s="27"/>
+      <c r="AT22" s="27"/>
+      <c r="AU22" s="27"/>
+      <c r="AV22" s="27"/>
+    </row>
+    <row r="23" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="27"/>
+      <c r="AQ23" s="27"/>
+      <c r="AR23" s="27"/>
+      <c r="AS23" s="27"/>
+      <c r="AT23" s="27"/>
+      <c r="AU23" s="27"/>
+      <c r="AV23" s="27"/>
+    </row>
+    <row r="24" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="27"/>
+      <c r="AO24" s="27"/>
+      <c r="AP24" s="27"/>
+      <c r="AQ24" s="27"/>
+      <c r="AR24" s="27"/>
+      <c r="AS24" s="27"/>
+      <c r="AT24" s="27"/>
+      <c r="AU24" s="27"/>
+      <c r="AV24" s="27"/>
+    </row>
+    <row r="25" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="27"/>
+      <c r="AO25" s="27"/>
+      <c r="AP25" s="27"/>
+      <c r="AQ25" s="27"/>
+      <c r="AR25" s="27"/>
+      <c r="AS25" s="27"/>
+      <c r="AT25" s="27"/>
+      <c r="AU25" s="27"/>
+      <c r="AV25" s="27"/>
+    </row>
+    <row r="26" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="27"/>
+      <c r="AN26" s="27"/>
+      <c r="AO26" s="27"/>
+      <c r="AP26" s="27"/>
+      <c r="AQ26" s="27"/>
+      <c r="AR26" s="27"/>
+      <c r="AS26" s="27"/>
+      <c r="AT26" s="27"/>
+      <c r="AU26" s="27"/>
+      <c r="AV26" s="27"/>
+    </row>
+    <row r="27" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="27"/>
+      <c r="AN27" s="27"/>
+      <c r="AO27" s="27"/>
+      <c r="AP27" s="27"/>
+      <c r="AQ27" s="27"/>
+      <c r="AR27" s="27"/>
+      <c r="AS27" s="27"/>
+      <c r="AT27" s="27"/>
+      <c r="AU27" s="27"/>
+      <c r="AV27" s="27"/>
+    </row>
+    <row r="28" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="27"/>
+      <c r="AM28" s="27"/>
+      <c r="AN28" s="27"/>
+      <c r="AO28" s="27"/>
+      <c r="AP28" s="27"/>
+      <c r="AQ28" s="27"/>
+      <c r="AR28" s="27"/>
+      <c r="AS28" s="27"/>
+      <c r="AT28" s="27"/>
+      <c r="AU28" s="27"/>
+      <c r="AV28" s="27"/>
+    </row>
+    <row r="29" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="27"/>
+      <c r="AL29" s="27"/>
+      <c r="AM29" s="27"/>
+      <c r="AN29" s="27"/>
+      <c r="AO29" s="27"/>
+      <c r="AP29" s="27"/>
+      <c r="AQ29" s="27"/>
+      <c r="AR29" s="27"/>
+      <c r="AS29" s="27"/>
+      <c r="AT29" s="27"/>
+      <c r="AU29" s="27"/>
+      <c r="AV29" s="27"/>
+    </row>
+    <row r="30" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="27"/>
+      <c r="AN30" s="27"/>
+      <c r="AO30" s="27"/>
+      <c r="AP30" s="27"/>
+      <c r="AQ30" s="27"/>
+      <c r="AR30" s="27"/>
+      <c r="AS30" s="27"/>
+      <c r="AT30" s="27"/>
+      <c r="AU30" s="27"/>
+      <c r="AV30" s="27"/>
+    </row>
+    <row r="31" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="27"/>
+      <c r="AN31" s="27"/>
+      <c r="AO31" s="27"/>
+      <c r="AP31" s="27"/>
+      <c r="AQ31" s="27"/>
+      <c r="AR31" s="27"/>
+      <c r="AS31" s="27"/>
+      <c r="AT31" s="27"/>
+      <c r="AU31" s="27"/>
+      <c r="AV31" s="27"/>
+    </row>
+    <row r="32" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="27"/>
+      <c r="AI32" s="27"/>
+      <c r="AJ32" s="27"/>
+      <c r="AK32" s="27"/>
+      <c r="AL32" s="27"/>
+      <c r="AM32" s="27"/>
+      <c r="AN32" s="27"/>
+      <c r="AO32" s="27"/>
+      <c r="AP32" s="27"/>
+      <c r="AQ32" s="27"/>
+      <c r="AR32" s="27"/>
+      <c r="AS32" s="27"/>
+      <c r="AT32" s="27"/>
+      <c r="AU32" s="27"/>
+      <c r="AV32" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B9:AV9"/>
+    <mergeCell ref="B10:AV32"/>
+    <mergeCell ref="A1:XFD3"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="J4:M5"/>
+    <mergeCell ref="N4:Q5"/>
+    <mergeCell ref="R4:U5"/>
+    <mergeCell ref="V4:Y5"/>
+    <mergeCell ref="Z4:AC5"/>
+    <mergeCell ref="B7:AV8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
+    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
+    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
+    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
+    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BA17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4:Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="52" width="3" style="1"/>
+    <col min="53" max="53" width="3" style="2"/>
+    <col min="54" max="16384" width="3" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+    </row>
+    <row r="5" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+    </row>
+    <row r="6" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
+      <c r="AP7" s="34"/>
+      <c r="AQ7" s="34"/>
+      <c r="AR7" s="34"/>
+      <c r="AS7" s="34"/>
+      <c r="AT7" s="34"/>
+      <c r="AU7" s="34"/>
+      <c r="AV7" s="35"/>
+    </row>
+    <row r="8" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="37"/>
+      <c r="AQ8" s="37"/>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="37"/>
+      <c r="AT8" s="37"/>
+      <c r="AU8" s="37"/>
+      <c r="AV8" s="38"/>
+    </row>
+    <row r="9" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="39" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -2743,7 +6430,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
@@ -2751,19 +6438,19 @@
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="S9" s="15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
       <c r="W9" s="15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
@@ -2791,8 +6478,10 @@
       <c r="AU9" s="15"/>
       <c r="AV9" s="17"/>
     </row>
-    <row r="10" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="29"/>
+    <row r="10" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -2813,34 +6502,34 @@
       <c r="T10" s="27"/>
       <c r="U10" s="27"/>
       <c r="V10" s="27"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="32"/>
-      <c r="AF10" s="32"/>
-      <c r="AG10" s="32"/>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="32"/>
-      <c r="AJ10" s="32"/>
-      <c r="AK10" s="32"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="32"/>
-      <c r="AN10" s="32"/>
-      <c r="AO10" s="32"/>
-      <c r="AP10" s="32"/>
-      <c r="AQ10" s="32"/>
-      <c r="AR10" s="32"/>
-      <c r="AS10" s="32"/>
-      <c r="AT10" s="32"/>
-      <c r="AU10" s="32"/>
-      <c r="AV10" s="33"/>
-    </row>
-    <row r="11" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="30"/>
+      <c r="AQ10" s="30"/>
+      <c r="AR10" s="30"/>
+      <c r="AS10" s="30"/>
+      <c r="AT10" s="30"/>
+      <c r="AU10" s="30"/>
+      <c r="AV10" s="31"/>
+    </row>
+    <row r="11" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="29"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -2862,34 +6551,34 @@
       <c r="T11" s="27"/>
       <c r="U11" s="27"/>
       <c r="V11" s="27"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="32"/>
-      <c r="AG11" s="32"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="32"/>
-      <c r="AN11" s="32"/>
-      <c r="AO11" s="32"/>
-      <c r="AP11" s="32"/>
-      <c r="AQ11" s="32"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="32"/>
-      <c r="AT11" s="32"/>
-      <c r="AU11" s="32"/>
-      <c r="AV11" s="33"/>
-    </row>
-    <row r="12" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="30"/>
+      <c r="AQ11" s="30"/>
+      <c r="AR11" s="30"/>
+      <c r="AS11" s="30"/>
+      <c r="AT11" s="30"/>
+      <c r="AU11" s="30"/>
+      <c r="AV11" s="31"/>
+    </row>
+    <row r="12" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="29"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -2911,34 +6600,34 @@
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
       <c r="V12" s="27"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="32"/>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="32"/>
-      <c r="AN12" s="32"/>
-      <c r="AO12" s="32"/>
-      <c r="AP12" s="32"/>
-      <c r="AQ12" s="32"/>
-      <c r="AR12" s="32"/>
-      <c r="AS12" s="32"/>
-      <c r="AT12" s="32"/>
-      <c r="AU12" s="32"/>
-      <c r="AV12" s="33"/>
-    </row>
-    <row r="13" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W12" s="32"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="30"/>
+      <c r="AQ12" s="30"/>
+      <c r="AR12" s="30"/>
+      <c r="AS12" s="30"/>
+      <c r="AT12" s="30"/>
+      <c r="AU12" s="30"/>
+      <c r="AV12" s="31"/>
+    </row>
+    <row r="13" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="29"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -2960,34 +6649,34 @@
       <c r="T13" s="27"/>
       <c r="U13" s="27"/>
       <c r="V13" s="27"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="32"/>
-      <c r="AG13" s="32"/>
-      <c r="AH13" s="32"/>
-      <c r="AI13" s="32"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" s="32"/>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="32"/>
-      <c r="AN13" s="32"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="32"/>
-      <c r="AQ13" s="32"/>
-      <c r="AR13" s="32"/>
-      <c r="AS13" s="32"/>
-      <c r="AT13" s="32"/>
-      <c r="AU13" s="32"/>
-      <c r="AV13" s="33"/>
-    </row>
-    <row r="14" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="30"/>
+      <c r="AQ13" s="30"/>
+      <c r="AR13" s="30"/>
+      <c r="AS13" s="30"/>
+      <c r="AT13" s="30"/>
+      <c r="AU13" s="30"/>
+      <c r="AV13" s="31"/>
+    </row>
+    <row r="14" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="29"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -3009,34 +6698,34 @@
       <c r="T14" s="27"/>
       <c r="U14" s="27"/>
       <c r="V14" s="27"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="32"/>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="32"/>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="32"/>
-      <c r="AN14" s="32"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="32"/>
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="32"/>
-      <c r="AS14" s="32"/>
-      <c r="AT14" s="32"/>
-      <c r="AU14" s="32"/>
-      <c r="AV14" s="33"/>
-    </row>
-    <row r="15" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
+      <c r="AQ14" s="30"/>
+      <c r="AR14" s="30"/>
+      <c r="AS14" s="30"/>
+      <c r="AT14" s="30"/>
+      <c r="AU14" s="30"/>
+      <c r="AV14" s="31"/>
+    </row>
+    <row r="15" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="29"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -3058,34 +6747,34 @@
       <c r="T15" s="27"/>
       <c r="U15" s="27"/>
       <c r="V15" s="27"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="32"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="32"/>
-      <c r="AS15" s="32"/>
-      <c r="AT15" s="32"/>
-      <c r="AU15" s="32"/>
-      <c r="AV15" s="33"/>
-    </row>
-    <row r="16" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="30"/>
+      <c r="AQ15" s="30"/>
+      <c r="AR15" s="30"/>
+      <c r="AS15" s="30"/>
+      <c r="AT15" s="30"/>
+      <c r="AU15" s="30"/>
+      <c r="AV15" s="31"/>
+    </row>
+    <row r="16" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="29"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -3107,34 +6796,34 @@
       <c r="T16" s="27"/>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="32"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="32"/>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="32"/>
-      <c r="AN16" s="32"/>
-      <c r="AO16" s="32"/>
-      <c r="AP16" s="32"/>
-      <c r="AQ16" s="32"/>
-      <c r="AR16" s="32"/>
-      <c r="AS16" s="32"/>
-      <c r="AT16" s="32"/>
-      <c r="AU16" s="32"/>
-      <c r="AV16" s="33"/>
-    </row>
-    <row r="17" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
+      <c r="AQ16" s="30"/>
+      <c r="AR16" s="30"/>
+      <c r="AS16" s="30"/>
+      <c r="AT16" s="30"/>
+      <c r="AU16" s="30"/>
+      <c r="AV16" s="31"/>
+    </row>
+    <row r="17" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="29"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -3156,1113 +6845,35 @@
       <c r="T17" s="27"/>
       <c r="U17" s="27"/>
       <c r="V17" s="27"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="32"/>
-      <c r="AK17" s="32"/>
-      <c r="AL17" s="32"/>
-      <c r="AM17" s="32"/>
-      <c r="AN17" s="32"/>
-      <c r="AO17" s="32"/>
-      <c r="AP17" s="32"/>
-      <c r="AQ17" s="32"/>
-      <c r="AR17" s="32"/>
-      <c r="AS17" s="32"/>
-      <c r="AT17" s="32"/>
-      <c r="AU17" s="32"/>
-      <c r="AV17" s="33"/>
-    </row>
-    <row r="18" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="29"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="32"/>
-      <c r="AN18" s="32"/>
-      <c r="AO18" s="32"/>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="32"/>
-      <c r="AS18" s="32"/>
-      <c r="AT18" s="32"/>
-      <c r="AU18" s="32"/>
-      <c r="AV18" s="33"/>
-    </row>
-    <row r="19" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="29"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="32"/>
-      <c r="AF19" s="32"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="32"/>
-      <c r="AI19" s="32"/>
-      <c r="AJ19" s="32"/>
-      <c r="AK19" s="32"/>
-      <c r="AL19" s="32"/>
-      <c r="AM19" s="32"/>
-      <c r="AN19" s="32"/>
-      <c r="AO19" s="32"/>
-      <c r="AP19" s="32"/>
-      <c r="AQ19" s="32"/>
-      <c r="AR19" s="32"/>
-      <c r="AS19" s="32"/>
-      <c r="AT19" s="32"/>
-      <c r="AU19" s="32"/>
-      <c r="AV19" s="33"/>
-    </row>
-    <row r="20" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="29"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="32"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="32"/>
-      <c r="AP20" s="32"/>
-      <c r="AQ20" s="32"/>
-      <c r="AR20" s="32"/>
-      <c r="AS20" s="32"/>
-      <c r="AT20" s="32"/>
-      <c r="AU20" s="32"/>
-      <c r="AV20" s="33"/>
-    </row>
-    <row r="21" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="29"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="32"/>
-      <c r="AI21" s="32"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="32"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="32"/>
-      <c r="AN21" s="32"/>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="32"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="32"/>
-      <c r="AS21" s="32"/>
-      <c r="AT21" s="32"/>
-      <c r="AU21" s="32"/>
-      <c r="AV21" s="33"/>
-    </row>
-    <row r="22" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="29"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="32"/>
-      <c r="AF22" s="32"/>
-      <c r="AG22" s="32"/>
-      <c r="AH22" s="32"/>
-      <c r="AI22" s="32"/>
-      <c r="AJ22" s="32"/>
-      <c r="AK22" s="32"/>
-      <c r="AL22" s="32"/>
-      <c r="AM22" s="32"/>
-      <c r="AN22" s="32"/>
-      <c r="AO22" s="32"/>
-      <c r="AP22" s="32"/>
-      <c r="AQ22" s="32"/>
-      <c r="AR22" s="32"/>
-      <c r="AS22" s="32"/>
-      <c r="AT22" s="32"/>
-      <c r="AU22" s="32"/>
-      <c r="AV22" s="33"/>
-    </row>
-    <row r="23" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="29"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="32"/>
-      <c r="AN23" s="32"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="32"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="32"/>
-      <c r="AS23" s="32"/>
-      <c r="AT23" s="32"/>
-      <c r="AU23" s="32"/>
-      <c r="AV23" s="33"/>
-    </row>
-    <row r="24" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="29"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="32"/>
-      <c r="AL24" s="32"/>
-      <c r="AM24" s="32"/>
-      <c r="AN24" s="32"/>
-      <c r="AO24" s="32"/>
-      <c r="AP24" s="32"/>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="32"/>
-      <c r="AS24" s="32"/>
-      <c r="AT24" s="32"/>
-      <c r="AU24" s="32"/>
-      <c r="AV24" s="33"/>
-    </row>
-    <row r="25" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="29"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="32"/>
-      <c r="AK25" s="32"/>
-      <c r="AL25" s="32"/>
-      <c r="AM25" s="32"/>
-      <c r="AN25" s="32"/>
-      <c r="AO25" s="32"/>
-      <c r="AP25" s="32"/>
-      <c r="AQ25" s="32"/>
-      <c r="AR25" s="32"/>
-      <c r="AS25" s="32"/>
-      <c r="AT25" s="32"/>
-      <c r="AU25" s="32"/>
-      <c r="AV25" s="33"/>
-    </row>
-    <row r="26" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="29"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="32"/>
-      <c r="AO26" s="32"/>
-      <c r="AP26" s="32"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="32"/>
-      <c r="AS26" s="32"/>
-      <c r="AT26" s="32"/>
-      <c r="AU26" s="32"/>
-      <c r="AV26" s="33"/>
-    </row>
-    <row r="27" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="29"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="32"/>
-      <c r="AO27" s="32"/>
-      <c r="AP27" s="32"/>
-      <c r="AQ27" s="32"/>
-      <c r="AR27" s="32"/>
-      <c r="AS27" s="32"/>
-      <c r="AT27" s="32"/>
-      <c r="AU27" s="32"/>
-      <c r="AV27" s="33"/>
-    </row>
-    <row r="28" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="29"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32"/>
-      <c r="AP28" s="32"/>
-      <c r="AQ28" s="32"/>
-      <c r="AR28" s="32"/>
-      <c r="AS28" s="32"/>
-      <c r="AT28" s="32"/>
-      <c r="AU28" s="32"/>
-      <c r="AV28" s="33"/>
-    </row>
-    <row r="29" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="29"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="32"/>
-      <c r="AJ29" s="32"/>
-      <c r="AK29" s="32"/>
-      <c r="AL29" s="32"/>
-      <c r="AM29" s="32"/>
-      <c r="AN29" s="32"/>
-      <c r="AO29" s="32"/>
-      <c r="AP29" s="32"/>
-      <c r="AQ29" s="32"/>
-      <c r="AR29" s="32"/>
-      <c r="AS29" s="32"/>
-      <c r="AT29" s="32"/>
-      <c r="AU29" s="32"/>
-      <c r="AV29" s="33"/>
-    </row>
-    <row r="30" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="29"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="32"/>
-      <c r="AF30" s="32"/>
-      <c r="AG30" s="32"/>
-      <c r="AH30" s="32"/>
-      <c r="AI30" s="32"/>
-      <c r="AJ30" s="32"/>
-      <c r="AK30" s="32"/>
-      <c r="AL30" s="32"/>
-      <c r="AM30" s="32"/>
-      <c r="AN30" s="32"/>
-      <c r="AO30" s="32"/>
-      <c r="AP30" s="32"/>
-      <c r="AQ30" s="32"/>
-      <c r="AR30" s="32"/>
-      <c r="AS30" s="32"/>
-      <c r="AT30" s="32"/>
-      <c r="AU30" s="32"/>
-      <c r="AV30" s="33"/>
-    </row>
-    <row r="31" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="29"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="32"/>
-      <c r="AI31" s="32"/>
-      <c r="AJ31" s="32"/>
-      <c r="AK31" s="32"/>
-      <c r="AL31" s="32"/>
-      <c r="AM31" s="32"/>
-      <c r="AN31" s="32"/>
-      <c r="AO31" s="32"/>
-      <c r="AP31" s="32"/>
-      <c r="AQ31" s="32"/>
-      <c r="AR31" s="32"/>
-      <c r="AS31" s="32"/>
-      <c r="AT31" s="32"/>
-      <c r="AU31" s="32"/>
-      <c r="AV31" s="33"/>
-    </row>
-    <row r="32" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="36"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="32"/>
-      <c r="AF32" s="32"/>
-      <c r="AG32" s="32"/>
-      <c r="AH32" s="32"/>
-      <c r="AI32" s="32"/>
-      <c r="AJ32" s="32"/>
-      <c r="AK32" s="32"/>
-      <c r="AL32" s="32"/>
-      <c r="AM32" s="32"/>
-      <c r="AN32" s="32"/>
-      <c r="AO32" s="32"/>
-      <c r="AP32" s="32"/>
-      <c r="AQ32" s="32"/>
-      <c r="AR32" s="32"/>
-      <c r="AS32" s="32"/>
-      <c r="AT32" s="32"/>
-      <c r="AU32" s="32"/>
-      <c r="AV32" s="33"/>
-    </row>
-    <row r="33" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="29"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="32"/>
-      <c r="AH33" s="32"/>
-      <c r="AI33" s="32"/>
-      <c r="AJ33" s="32"/>
-      <c r="AK33" s="32"/>
-      <c r="AL33" s="32"/>
-      <c r="AM33" s="32"/>
-      <c r="AN33" s="32"/>
-      <c r="AO33" s="32"/>
-      <c r="AP33" s="32"/>
-      <c r="AQ33" s="32"/>
-      <c r="AR33" s="32"/>
-      <c r="AS33" s="32"/>
-      <c r="AT33" s="32"/>
-      <c r="AU33" s="32"/>
-      <c r="AV33" s="33"/>
-    </row>
-    <row r="34" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="36"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="32"/>
-      <c r="AF34" s="32"/>
-      <c r="AG34" s="32"/>
-      <c r="AH34" s="32"/>
-      <c r="AI34" s="32"/>
-      <c r="AJ34" s="32"/>
-      <c r="AK34" s="32"/>
-      <c r="AL34" s="32"/>
-      <c r="AM34" s="32"/>
-      <c r="AN34" s="32"/>
-      <c r="AO34" s="32"/>
-      <c r="AP34" s="32"/>
-      <c r="AQ34" s="32"/>
-      <c r="AR34" s="32"/>
-      <c r="AS34" s="32"/>
-      <c r="AT34" s="32"/>
-      <c r="AU34" s="32"/>
-      <c r="AV34" s="33"/>
-    </row>
-    <row r="35" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="29"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="32"/>
-      <c r="AE35" s="32"/>
-      <c r="AF35" s="32"/>
-      <c r="AG35" s="32"/>
-      <c r="AH35" s="32"/>
-      <c r="AI35" s="32"/>
-      <c r="AJ35" s="32"/>
-      <c r="AK35" s="32"/>
-      <c r="AL35" s="32"/>
-      <c r="AM35" s="32"/>
-      <c r="AN35" s="32"/>
-      <c r="AO35" s="32"/>
-      <c r="AP35" s="32"/>
-      <c r="AQ35" s="32"/>
-      <c r="AR35" s="32"/>
-      <c r="AS35" s="32"/>
-      <c r="AT35" s="32"/>
-      <c r="AU35" s="32"/>
-      <c r="AV35" s="33"/>
-    </row>
-    <row r="36" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="29"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="32"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="32"/>
-      <c r="AH36" s="32"/>
-      <c r="AI36" s="32"/>
-      <c r="AJ36" s="32"/>
-      <c r="AK36" s="32"/>
-      <c r="AL36" s="32"/>
-      <c r="AM36" s="32"/>
-      <c r="AN36" s="32"/>
-      <c r="AO36" s="32"/>
-      <c r="AP36" s="32"/>
-      <c r="AQ36" s="32"/>
-      <c r="AR36" s="32"/>
-      <c r="AS36" s="32"/>
-      <c r="AT36" s="32"/>
-      <c r="AU36" s="32"/>
-      <c r="AV36" s="33"/>
-    </row>
-    <row r="37" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="29"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="32"/>
-      <c r="AF37" s="32"/>
-      <c r="AG37" s="32"/>
-      <c r="AH37" s="32"/>
-      <c r="AI37" s="32"/>
-      <c r="AJ37" s="32"/>
-      <c r="AK37" s="32"/>
-      <c r="AL37" s="32"/>
-      <c r="AM37" s="32"/>
-      <c r="AN37" s="32"/>
-      <c r="AO37" s="32"/>
-      <c r="AP37" s="32"/>
-      <c r="AQ37" s="32"/>
-      <c r="AR37" s="32"/>
-      <c r="AS37" s="32"/>
-      <c r="AT37" s="32"/>
-      <c r="AU37" s="32"/>
-      <c r="AV37" s="33"/>
-    </row>
-    <row r="38" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="29"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="32"/>
-      <c r="AE38" s="32"/>
-      <c r="AF38" s="32"/>
-      <c r="AG38" s="32"/>
-      <c r="AH38" s="32"/>
-      <c r="AI38" s="32"/>
-      <c r="AJ38" s="32"/>
-      <c r="AK38" s="32"/>
-      <c r="AL38" s="32"/>
-      <c r="AM38" s="32"/>
-      <c r="AN38" s="32"/>
-      <c r="AO38" s="32"/>
-      <c r="AP38" s="32"/>
-      <c r="AQ38" s="32"/>
-      <c r="AR38" s="32"/>
-      <c r="AS38" s="32"/>
-      <c r="AT38" s="32"/>
-      <c r="AU38" s="32"/>
-      <c r="AV38" s="33"/>
-    </row>
-    <row r="39" spans="2:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="34"/>
-      <c r="AF39" s="34"/>
-      <c r="AG39" s="34"/>
-      <c r="AH39" s="34"/>
-      <c r="AI39" s="34"/>
-      <c r="AJ39" s="34"/>
-      <c r="AK39" s="34"/>
-      <c r="AL39" s="34"/>
-      <c r="AM39" s="34"/>
-      <c r="AN39" s="34"/>
-      <c r="AO39" s="34"/>
-      <c r="AP39" s="34"/>
-      <c r="AQ39" s="34"/>
-      <c r="AR39" s="34"/>
-      <c r="AS39" s="34"/>
-      <c r="AT39" s="34"/>
-      <c r="AU39" s="34"/>
-      <c r="AV39" s="35"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="30"/>
+      <c r="AO17" s="30"/>
+      <c r="AP17" s="30"/>
+      <c r="AQ17" s="30"/>
+      <c r="AR17" s="30"/>
+      <c r="AS17" s="30"/>
+      <c r="AT17" s="30"/>
+      <c r="AU17" s="30"/>
+      <c r="AV17" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="89">
+  <mergeCells count="34">
     <mergeCell ref="A1:XFD3"/>
     <mergeCell ref="B4:E5"/>
     <mergeCell ref="F4:I5"/>
@@ -4277,325 +6888,26 @@
     <mergeCell ref="O9:R9"/>
     <mergeCell ref="S9:V9"/>
     <mergeCell ref="W9:AV9"/>
+    <mergeCell ref="B10:H11"/>
+    <mergeCell ref="I10:N11"/>
+    <mergeCell ref="O10:R11"/>
+    <mergeCell ref="S10:V11"/>
+    <mergeCell ref="W10:AV11"/>
     <mergeCell ref="B12:H13"/>
     <mergeCell ref="I12:N13"/>
     <mergeCell ref="O12:R13"/>
     <mergeCell ref="S12:V13"/>
     <mergeCell ref="W12:AV13"/>
-    <mergeCell ref="B10:H11"/>
-    <mergeCell ref="I10:N11"/>
-    <mergeCell ref="O10:R11"/>
-    <mergeCell ref="S10:V11"/>
-    <mergeCell ref="W10:AV11"/>
+    <mergeCell ref="B14:H15"/>
+    <mergeCell ref="I14:N15"/>
+    <mergeCell ref="O14:R15"/>
+    <mergeCell ref="S14:V15"/>
+    <mergeCell ref="W14:AV15"/>
     <mergeCell ref="B16:H17"/>
     <mergeCell ref="I16:N17"/>
     <mergeCell ref="O16:R17"/>
     <mergeCell ref="S16:V17"/>
     <mergeCell ref="W16:AV17"/>
-    <mergeCell ref="B14:H15"/>
-    <mergeCell ref="I14:N15"/>
-    <mergeCell ref="O14:R15"/>
-    <mergeCell ref="S14:V15"/>
-    <mergeCell ref="W14:AV15"/>
-    <mergeCell ref="B20:H21"/>
-    <mergeCell ref="I20:N21"/>
-    <mergeCell ref="O20:R21"/>
-    <mergeCell ref="S20:V21"/>
-    <mergeCell ref="W20:AV21"/>
-    <mergeCell ref="B18:H19"/>
-    <mergeCell ref="I18:N19"/>
-    <mergeCell ref="O18:R19"/>
-    <mergeCell ref="S18:V19"/>
-    <mergeCell ref="W18:AV19"/>
-    <mergeCell ref="B24:H25"/>
-    <mergeCell ref="I24:N25"/>
-    <mergeCell ref="O24:R25"/>
-    <mergeCell ref="S24:V25"/>
-    <mergeCell ref="W24:AV25"/>
-    <mergeCell ref="B22:H23"/>
-    <mergeCell ref="I22:N23"/>
-    <mergeCell ref="O22:R23"/>
-    <mergeCell ref="S22:V23"/>
-    <mergeCell ref="W22:AV23"/>
-    <mergeCell ref="B28:H29"/>
-    <mergeCell ref="I28:N29"/>
-    <mergeCell ref="O28:R29"/>
-    <mergeCell ref="S28:V29"/>
-    <mergeCell ref="W28:AV29"/>
-    <mergeCell ref="B26:H27"/>
-    <mergeCell ref="I26:N27"/>
-    <mergeCell ref="O26:R27"/>
-    <mergeCell ref="S26:V27"/>
-    <mergeCell ref="W26:AV27"/>
-    <mergeCell ref="B32:H33"/>
-    <mergeCell ref="I32:N33"/>
-    <mergeCell ref="O32:R33"/>
-    <mergeCell ref="S32:V33"/>
-    <mergeCell ref="W32:AV33"/>
-    <mergeCell ref="B30:H31"/>
-    <mergeCell ref="I30:N31"/>
-    <mergeCell ref="O30:R31"/>
-    <mergeCell ref="S30:V31"/>
-    <mergeCell ref="W30:AV31"/>
-    <mergeCell ref="B36:H37"/>
-    <mergeCell ref="I36:N37"/>
-    <mergeCell ref="O36:R37"/>
-    <mergeCell ref="S36:V37"/>
-    <mergeCell ref="W36:AV37"/>
-    <mergeCell ref="B34:H35"/>
-    <mergeCell ref="I34:N35"/>
-    <mergeCell ref="O34:R35"/>
-    <mergeCell ref="S34:V35"/>
-    <mergeCell ref="W34:AV35"/>
-    <mergeCell ref="B38:H39"/>
-    <mergeCell ref="I38:N39"/>
-    <mergeCell ref="O38:R39"/>
-    <mergeCell ref="S38:V39"/>
-    <mergeCell ref="W38:AV39"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
-    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
-    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
-    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
-    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
-    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA5"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="52" width="3" style="1"/>
-    <col min="53" max="53" width="3" style="2"/>
-    <col min="54" max="16384" width="3" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-    </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:XFD3"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="F4:I5"/>
-    <mergeCell ref="J4:M5"/>
-    <mergeCell ref="N4:Q5"/>
-    <mergeCell ref="R4:U5"/>
-    <mergeCell ref="V4:Y5"/>
-    <mergeCell ref="Z4:AC5"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
-    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
-    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
-    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
-    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
-    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA5"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y18" sqref="Y18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="52" width="3" style="1"/>
-    <col min="53" max="53" width="3" style="2"/>
-    <col min="54" max="16384" width="3" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-    </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:XFD3"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="F4:I5"/>
-    <mergeCell ref="J4:M5"/>
-    <mergeCell ref="N4:Q5"/>
-    <mergeCell ref="R4:U5"/>
-    <mergeCell ref="V4:Y5"/>
-    <mergeCell ref="Z4:AC5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -4613,103 +6925,657 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA5"/>
+  <dimension ref="A1:BA17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V4" sqref="V4:Y5"/>
+      <selection pane="bottomLeft" activeCell="Z4" sqref="Z4:AC5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48" t="s">
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48" t="s">
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48" t="s">
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
       <c r="V4" s="25" t="s">
         <v>6</v>
       </c>
       <c r="W4" s="25"/>
       <c r="X4" s="25"/>
       <c r="Y4" s="25"/>
-      <c r="Z4" s="48" t="s">
+      <c r="Z4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-    </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+    </row>
+    <row r="5" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
       <c r="V5" s="25"/>
       <c r="W5" s="25"/>
       <c r="X5" s="25"/>
       <c r="Y5" s="25"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+    </row>
+    <row r="6" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
+      <c r="AP7" s="34"/>
+      <c r="AQ7" s="34"/>
+      <c r="AR7" s="34"/>
+      <c r="AS7" s="34"/>
+      <c r="AT7" s="34"/>
+      <c r="AU7" s="34"/>
+      <c r="AV7" s="35"/>
+    </row>
+    <row r="8" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="37"/>
+      <c r="AQ8" s="37"/>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="37"/>
+      <c r="AT8" s="37"/>
+      <c r="AU8" s="37"/>
+      <c r="AV8" s="38"/>
+    </row>
+    <row r="9" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="17"/>
+    </row>
+    <row r="10" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="30"/>
+      <c r="AQ10" s="30"/>
+      <c r="AR10" s="30"/>
+      <c r="AS10" s="30"/>
+      <c r="AT10" s="30"/>
+      <c r="AU10" s="30"/>
+      <c r="AV10" s="31"/>
+    </row>
+    <row r="11" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="29"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="30"/>
+      <c r="AQ11" s="30"/>
+      <c r="AR11" s="30"/>
+      <c r="AS11" s="30"/>
+      <c r="AT11" s="30"/>
+      <c r="AU11" s="30"/>
+      <c r="AV11" s="31"/>
+    </row>
+    <row r="12" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="29"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="30"/>
+      <c r="AQ12" s="30"/>
+      <c r="AR12" s="30"/>
+      <c r="AS12" s="30"/>
+      <c r="AT12" s="30"/>
+      <c r="AU12" s="30"/>
+      <c r="AV12" s="31"/>
+    </row>
+    <row r="13" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="29"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="30"/>
+      <c r="AQ13" s="30"/>
+      <c r="AR13" s="30"/>
+      <c r="AS13" s="30"/>
+      <c r="AT13" s="30"/>
+      <c r="AU13" s="30"/>
+      <c r="AV13" s="31"/>
+    </row>
+    <row r="14" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="29"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
+      <c r="AQ14" s="30"/>
+      <c r="AR14" s="30"/>
+      <c r="AS14" s="30"/>
+      <c r="AT14" s="30"/>
+      <c r="AU14" s="30"/>
+      <c r="AV14" s="31"/>
+    </row>
+    <row r="15" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="29"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="30"/>
+      <c r="AQ15" s="30"/>
+      <c r="AR15" s="30"/>
+      <c r="AS15" s="30"/>
+      <c r="AT15" s="30"/>
+      <c r="AU15" s="30"/>
+      <c r="AV15" s="31"/>
+    </row>
+    <row r="16" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="29"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
+      <c r="AQ16" s="30"/>
+      <c r="AR16" s="30"/>
+      <c r="AS16" s="30"/>
+      <c r="AT16" s="30"/>
+      <c r="AU16" s="30"/>
+      <c r="AV16" s="31"/>
+    </row>
+    <row r="17" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="29"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="30"/>
+      <c r="AO17" s="30"/>
+      <c r="AP17" s="30"/>
+      <c r="AQ17" s="30"/>
+      <c r="AR17" s="30"/>
+      <c r="AS17" s="30"/>
+      <c r="AT17" s="30"/>
+      <c r="AU17" s="30"/>
+      <c r="AV17" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="34">
     <mergeCell ref="A1:XFD3"/>
     <mergeCell ref="B4:E5"/>
     <mergeCell ref="F4:I5"/>
@@ -4718,6 +7584,32 @@
     <mergeCell ref="R4:U5"/>
     <mergeCell ref="V4:Y5"/>
     <mergeCell ref="Z4:AC5"/>
+    <mergeCell ref="B7:AV8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="W9:AV9"/>
+    <mergeCell ref="B10:H11"/>
+    <mergeCell ref="I10:N11"/>
+    <mergeCell ref="O10:R11"/>
+    <mergeCell ref="S10:V11"/>
+    <mergeCell ref="W10:AV11"/>
+    <mergeCell ref="B12:H13"/>
+    <mergeCell ref="I12:N13"/>
+    <mergeCell ref="O12:R13"/>
+    <mergeCell ref="S12:V13"/>
+    <mergeCell ref="W12:AV13"/>
+    <mergeCell ref="B14:H15"/>
+    <mergeCell ref="I14:N15"/>
+    <mergeCell ref="O14:R15"/>
+    <mergeCell ref="S14:V15"/>
+    <mergeCell ref="W14:AV15"/>
+    <mergeCell ref="B16:H17"/>
+    <mergeCell ref="I16:N17"/>
+    <mergeCell ref="O16:R17"/>
+    <mergeCell ref="S16:V17"/>
+    <mergeCell ref="W16:AV17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -4735,103 +7627,657 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA5"/>
+  <dimension ref="A1:BA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE23" sqref="AE23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45" t="s">
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45" t="s">
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45" t="s">
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45" t="s">
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="49" t="s">
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-    </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+    </row>
+    <row r="5" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+    </row>
+    <row r="6" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
+      <c r="AP7" s="34"/>
+      <c r="AQ7" s="34"/>
+      <c r="AR7" s="34"/>
+      <c r="AS7" s="34"/>
+      <c r="AT7" s="34"/>
+      <c r="AU7" s="34"/>
+      <c r="AV7" s="35"/>
+    </row>
+    <row r="8" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="37"/>
+      <c r="AQ8" s="37"/>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="37"/>
+      <c r="AT8" s="37"/>
+      <c r="AU8" s="37"/>
+      <c r="AV8" s="38"/>
+    </row>
+    <row r="9" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="17"/>
+    </row>
+    <row r="10" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="30"/>
+      <c r="AQ10" s="30"/>
+      <c r="AR10" s="30"/>
+      <c r="AS10" s="30"/>
+      <c r="AT10" s="30"/>
+      <c r="AU10" s="30"/>
+      <c r="AV10" s="31"/>
+    </row>
+    <row r="11" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="29"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="30"/>
+      <c r="AQ11" s="30"/>
+      <c r="AR11" s="30"/>
+      <c r="AS11" s="30"/>
+      <c r="AT11" s="30"/>
+      <c r="AU11" s="30"/>
+      <c r="AV11" s="31"/>
+    </row>
+    <row r="12" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="29"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="30"/>
+      <c r="AQ12" s="30"/>
+      <c r="AR12" s="30"/>
+      <c r="AS12" s="30"/>
+      <c r="AT12" s="30"/>
+      <c r="AU12" s="30"/>
+      <c r="AV12" s="31"/>
+    </row>
+    <row r="13" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="29"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="30"/>
+      <c r="AQ13" s="30"/>
+      <c r="AR13" s="30"/>
+      <c r="AS13" s="30"/>
+      <c r="AT13" s="30"/>
+      <c r="AU13" s="30"/>
+      <c r="AV13" s="31"/>
+    </row>
+    <row r="14" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="29"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
+      <c r="AQ14" s="30"/>
+      <c r="AR14" s="30"/>
+      <c r="AS14" s="30"/>
+      <c r="AT14" s="30"/>
+      <c r="AU14" s="30"/>
+      <c r="AV14" s="31"/>
+    </row>
+    <row r="15" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="29"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="30"/>
+      <c r="AQ15" s="30"/>
+      <c r="AR15" s="30"/>
+      <c r="AS15" s="30"/>
+      <c r="AT15" s="30"/>
+      <c r="AU15" s="30"/>
+      <c r="AV15" s="31"/>
+    </row>
+    <row r="16" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="29"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
+      <c r="AQ16" s="30"/>
+      <c r="AR16" s="30"/>
+      <c r="AS16" s="30"/>
+      <c r="AT16" s="30"/>
+      <c r="AU16" s="30"/>
+      <c r="AV16" s="31"/>
+    </row>
+    <row r="17" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="29"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="30"/>
+      <c r="AO17" s="30"/>
+      <c r="AP17" s="30"/>
+      <c r="AQ17" s="30"/>
+      <c r="AR17" s="30"/>
+      <c r="AS17" s="30"/>
+      <c r="AT17" s="30"/>
+      <c r="AU17" s="30"/>
+      <c r="AV17" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="34">
     <mergeCell ref="A1:XFD3"/>
     <mergeCell ref="B4:E5"/>
     <mergeCell ref="F4:I5"/>
@@ -4840,6 +8286,32 @@
     <mergeCell ref="R4:U5"/>
     <mergeCell ref="V4:Y5"/>
     <mergeCell ref="Z4:AC5"/>
+    <mergeCell ref="B7:AV8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="W9:AV9"/>
+    <mergeCell ref="B10:H11"/>
+    <mergeCell ref="I10:N11"/>
+    <mergeCell ref="O10:R11"/>
+    <mergeCell ref="S10:V11"/>
+    <mergeCell ref="W10:AV11"/>
+    <mergeCell ref="B12:H13"/>
+    <mergeCell ref="I12:N13"/>
+    <mergeCell ref="O12:R13"/>
+    <mergeCell ref="S12:V13"/>
+    <mergeCell ref="W12:AV13"/>
+    <mergeCell ref="B14:H15"/>
+    <mergeCell ref="I14:N15"/>
+    <mergeCell ref="O14:R15"/>
+    <mergeCell ref="S14:V15"/>
+    <mergeCell ref="W14:AV15"/>
+    <mergeCell ref="B16:H17"/>
+    <mergeCell ref="I16:N17"/>
+    <mergeCell ref="O16:R17"/>
+    <mergeCell ref="S16:V17"/>
+    <mergeCell ref="W16:AV17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
